--- a/files/SM1/test 2/adjectives.xlsx
+++ b/files/SM1/test 2/adjectives.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\test 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9487BEF1-94D8-43B7-A3AB-8ED1415AFCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3310" yWindow="2900" windowWidth="17720" windowHeight="8240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
-    <t>Finnish</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>hyvä</t>
   </si>
   <si>
@@ -43,9 +43,6 @@
     <t>pieni</t>
   </si>
   <si>
-    <t>iso/suuri</t>
-  </si>
-  <si>
     <t>uusi</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>small</t>
   </si>
   <si>
-    <t>big/large</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -232,33 +226,49 @@
     <t>calm</t>
   </si>
   <si>
-    <t>tall</t>
-  </si>
-  <si>
     <t>slim</t>
   </si>
   <si>
     <t>sturdy</t>
+  </si>
+  <si>
+    <t>iso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suuri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -270,7 +280,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -278,43 +288,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,7 +352,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -386,6 +386,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -420,9 +421,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -595,326 +597,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>